--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1663383.304241981</v>
+        <v>1654739.525348074</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>936515.5219258656</v>
+        <v>478192.6657187986</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1702443.552109826</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10539372.29004432</v>
+        <v>10757764.99812417</v>
       </c>
     </row>
     <row r="11">
@@ -664,22 +664,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>338.1793942776992</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>40.62363183383332</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,16 +709,16 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -797,7 +797,7 @@
         <v>225.8879277888686</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>232.8005871494254</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>14.52687838733162</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>327.7946815628224</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>150.8400357509149</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>155.2114886365811</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>25.31590541686252</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>59.98826205530359</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>6.28367916400425</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1347,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>274.4876658745443</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>223.1498336210773</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1381,16 +1381,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>157.1498372999647</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>315.0408840752156</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4960408938905</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T11" t="n">
-        <v>212.651863114966</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.1547862223006</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.0669836643703</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>99.90681807664348</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>45.44580843958678</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>20.90078060183529</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>147.9721212459916</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T12" t="n">
-        <v>195.0194028815133</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1578,22 +1578,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>205.3658819001187</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T13" t="n">
-        <v>223.3729047207587</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.260654658097</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>22.79825004194661</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>412.9169039459368</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>315.0408840752156</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>154.6528871281403</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>212.651863114966</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U14" t="n">
-        <v>251.1547862223006</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>23.67620776652137</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.0669836643703</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H15" t="n">
-        <v>99.90681807664348</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>45.44580843958678</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>20.90078060183529</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>147.9721212459916</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T15" t="n">
-        <v>195.0194028815133</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1773,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>64.9485523285517</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>205.3658819001187</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>223.3729047207587</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>22.79825004194661</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -2004,25 +2004,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>71.96323264286308</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>139.1537278750036</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,22 +2055,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>155.8385935972313</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2323,7 +2323,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>178.320133290809</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2484,16 +2484,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2535,16 +2535,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>101.5008511078726</v>
       </c>
     </row>
     <row r="26">
@@ -2569,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113192</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2718,22 +2718,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>77.09075258261016</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
-        <v>208.4827883385038</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>101.1634376464994</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3043,13 +3043,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>33.35146980185944</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>174.3062600431768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,22 +3711,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>181.5016905511568</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>122.9684277897099</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4140,16 +4140,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>109.6690920422038</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>54.27683016996335</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1645.450628940882</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C2" t="n">
-        <v>1645.450628940882</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="D2" t="n">
-        <v>1287.184930334131</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="E2" t="n">
-        <v>1287.184930334131</v>
+        <v>923.9266662611117</v>
       </c>
       <c r="F2" t="n">
-        <v>876.1990255445237</v>
+        <v>512.9407614715042</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>94.97695336969105</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036446</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V2" t="n">
-        <v>2388.358616186807</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2035.589960916693</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>2035.589960916693</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>1645.450628940882</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="3">
@@ -4424,10 +4424,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018223</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C4" t="n">
-        <v>559.1928012785276</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D4" t="n">
-        <v>409.0761618661918</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>261.1630682837987</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>114.2731207858883</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G4" t="n">
-        <v>114.2731207858883</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H4" t="n">
-        <v>114.2731207858883</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036446</v>
@@ -4524,16 +4524,16 @@
         <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>667.7988452409105</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1662.48357412947</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
-        <v>1662.48357412947</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>1662.48357412947</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>1276.695321531225</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>865.7094167416178</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W5" t="n">
-        <v>1662.48357412947</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="X5" t="n">
-        <v>1662.48357412947</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y5" t="n">
-        <v>1662.48357412947</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4649,19 +4649,19 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
         <v>53.94298182036445</v>
@@ -4761,16 +4761,16 @@
         <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1391.97203927339</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C8" t="n">
-        <v>1391.97203927339</v>
+        <v>825.2129885066831</v>
       </c>
       <c r="D8" t="n">
-        <v>1391.97203927339</v>
+        <v>466.9472898999326</v>
       </c>
       <c r="E8" t="n">
-        <v>1006.183786675146</v>
+        <v>81.15903730168839</v>
       </c>
       <c r="F8" t="n">
-        <v>595.1978818855382</v>
+        <v>74.21353655248491</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>60.29013249107582</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>60.29013249107582</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4819,37 +4819,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862887</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862887</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862887</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2134.880026519316</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>1782.111371249202</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X8" t="n">
-        <v>1782.111371249202</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y8" t="n">
-        <v>1391.97203927339</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="9">
@@ -4880,16 +4880,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598709</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,7 +4971,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
         <v>529.6040388502502</v>
@@ -4980,34 +4980,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>450.8687156462887</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>450.8687156462887</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>450.8687156462887</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X10" t="n">
-        <v>222.8791647482714</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1783.661558493311</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>1414.699041552899</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1056.433342946149</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>670.6450903479042</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>670.6450903479042</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>511.9078809540005</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>193.6847657265099</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>262.6316941403561</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>666.0988071604008</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L11" t="n">
-        <v>1218.912065406599</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>1850.62987638991</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>2477.937544449755</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3025.098749216832</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>3454.413795556125</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>3699.589756331025</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>3699.589756331025</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>3699.589756331025</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>3484.789894598736</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>3231.098191343887</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>2900.035304000317</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>2547.266648730202</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>2173.800890469122</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>1783.661558493311</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>987.4134795532265</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C12" t="n">
-        <v>812.9604502720995</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D12" t="n">
-        <v>664.0260406108482</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E12" t="n">
-        <v>504.7885856053927</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2540276322776</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
-        <v>220.8126299914995</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>119.8966521363041</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K12" t="n">
-        <v>403.4201994324299</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L12" t="n">
-        <v>907.7817392985478</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M12" t="n">
-        <v>1548.327088765652</v>
+        <v>1442.339749591389</v>
       </c>
       <c r="N12" t="n">
-        <v>1983.615670002852</v>
+        <v>1786.860405229007</v>
       </c>
       <c r="O12" t="n">
-        <v>2232.369084086814</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P12" t="n">
-        <v>2656.336852567651</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q12" t="n">
-        <v>2656.336852567651</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
-        <v>2635.224952969837</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S12" t="n">
-        <v>2485.758163832472</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T12" t="n">
-        <v>2288.76886799256</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U12" t="n">
-        <v>2060.630080503725</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V12" t="n">
-        <v>1825.477972271983</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W12" t="n">
-        <v>1571.240615543781</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X12" t="n">
-        <v>1363.389115338248</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y12" t="n">
-        <v>1155.628816573294</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C13" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D13" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E13" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>73.9917951266205</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>175.03972472223</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>359.872719623048</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>565.1423203422855</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
-        <v>770.9656851783894</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>945.0605805669879</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1070.508157165603</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1073.926476585963</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1073.926476585963</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>866.4861918383683</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T13" t="n">
-        <v>640.8569951507333</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U13" t="n">
-        <v>351.704818728413</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V13" t="n">
-        <v>97.02033052252617</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W13" t="n">
-        <v>73.9917951266205</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y13" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2333.305065052698</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>1964.342548112286</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1606.076849505535</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1220.288596907291</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>809.3026921176836</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>392.2149103541111</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>73.9917951266205</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>262.6316941403561</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>666.098807160401</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L14" t="n">
-        <v>1218.912065406599</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M14" t="n">
-        <v>1850.62987638991</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>2477.937544449755</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3025.098749216832</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P14" t="n">
-        <v>3454.413795556125</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>3699.589756331025</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>3699.589756331025</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>3543.374718827853</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>3328.574857095564</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>3074.883153840715</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>2743.820266497144</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>2743.820266497144</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>2743.820266497144</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2719.904905116819</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>987.4134795532265</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C15" t="n">
-        <v>812.9604502720995</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D15" t="n">
-        <v>664.0260406108482</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E15" t="n">
-        <v>504.7885856053927</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2540276322776</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
-        <v>220.8126299914995</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>119.8966521363041</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>192.6510469835159</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K15" t="n">
-        <v>522.0794512893252</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L15" t="n">
-        <v>900.1991853349992</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="M15" t="n">
-        <v>1079.696521689603</v>
+        <v>865.5852378527475</v>
       </c>
       <c r="N15" t="n">
-        <v>1752.902213942385</v>
+        <v>1669.996816116898</v>
       </c>
       <c r="O15" t="n">
-        <v>2001.655628026347</v>
+        <v>2339.460577419557</v>
       </c>
       <c r="P15" t="n">
-        <v>2425.623396507183</v>
+        <v>2522.104055032908</v>
       </c>
       <c r="Q15" t="n">
-        <v>2656.336852567651</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
-        <v>2635.224952969837</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S15" t="n">
-        <v>2485.758163832472</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T15" t="n">
-        <v>2288.76886799256</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U15" t="n">
-        <v>2060.630080503725</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V15" t="n">
-        <v>1825.477972271983</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W15" t="n">
-        <v>1571.240615543781</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X15" t="n">
-        <v>1363.389115338248</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y15" t="n">
-        <v>1155.628816573294</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>73.9917951266205</v>
+        <v>571.6642370999739</v>
       </c>
       <c r="C16" t="n">
-        <v>73.9917951266205</v>
+        <v>571.6642370999739</v>
       </c>
       <c r="D16" t="n">
-        <v>73.9917951266205</v>
+        <v>571.6642370999739</v>
       </c>
       <c r="E16" t="n">
-        <v>73.9917951266205</v>
+        <v>506.0596387883055</v>
       </c>
       <c r="F16" t="n">
-        <v>73.9917951266205</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G16" t="n">
-        <v>73.9917951266205</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>73.9917951266205</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>73.9917951266205</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>175.03972472223</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>359.872719623048</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>565.1423203422855</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
-        <v>770.9656851783894</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>945.0605805669879</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1070.508157165603</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1073.926476585963</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1073.926476585963</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>866.4861918383683</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>640.8569951507333</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>351.704818728413</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V16" t="n">
-        <v>97.02033052252617</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W16" t="n">
-        <v>73.9917951266205</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="X16" t="n">
-        <v>73.9917951266205</v>
+        <v>792.456816243504</v>
       </c>
       <c r="Y16" t="n">
-        <v>73.9917951266205</v>
+        <v>571.6642370999739</v>
       </c>
     </row>
     <row r="17">
@@ -5515,7 +5515,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514083</v>
@@ -5527,10 +5527,10 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
         <v>4454.632848899127</v>
@@ -5597,22 +5597,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L18" t="n">
-        <v>327.180197328635</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M18" t="n">
-        <v>1095.548343721096</v>
+        <v>1501.013954514696</v>
       </c>
       <c r="N18" t="n">
-        <v>1899.959921985247</v>
+        <v>2305.425532778847</v>
       </c>
       <c r="O18" t="n">
-        <v>1899.959921985247</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="P18" t="n">
-        <v>2420.260543720994</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>599.7337779135435</v>
+        <v>237.776412546148</v>
       </c>
       <c r="C19" t="n">
-        <v>527.0436439308535</v>
+        <v>237.776412546148</v>
       </c>
       <c r="D19" t="n">
-        <v>376.9270045185177</v>
+        <v>237.776412546148</v>
       </c>
       <c r="E19" t="n">
-        <v>376.9270045185177</v>
+        <v>237.776412546148</v>
       </c>
       <c r="F19" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5703,22 +5703,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>1075.21084526296</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V19" t="n">
-        <v>820.5263570570736</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W19" t="n">
-        <v>820.5263570570736</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X19" t="n">
-        <v>820.5263570570736</v>
+        <v>237.776412546148</v>
       </c>
       <c r="Y19" t="n">
-        <v>599.7337779135435</v>
+        <v>237.776412546148</v>
       </c>
     </row>
     <row r="20">
@@ -5752,10 +5752,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C21" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D21" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E21" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>2500.819361250804</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K21" t="n">
-        <v>2901.872038843201</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L21" t="n">
-        <v>3131.83514471155</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M21" t="n">
-        <v>3452.170464241252</v>
+        <v>1570.408513028025</v>
       </c>
       <c r="N21" t="n">
-        <v>3796.69111987887</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O21" t="n">
-        <v>4045.444533962832</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P21" t="n">
-        <v>4565.745155698579</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q21" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S21" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T21" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U21" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W21" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X21" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y21" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4230.423978142507</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C22" t="n">
-        <v>4061.4877952146</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D22" t="n">
-        <v>3911.371155802264</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E22" t="n">
-        <v>3763.458062219871</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F22" t="n">
-        <v>3616.568114721961</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916677</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>4860.854573014293</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>4860.854573014293</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V22" t="n">
-        <v>4860.854573014293</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W22" t="n">
-        <v>4860.854573014293</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X22" t="n">
-        <v>4632.865022116276</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y22" t="n">
-        <v>4412.072442972746</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
         <v>1701.093169003441</v>
@@ -5986,49 +5986,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6065,28 +6065,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>222.5746515181233</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L24" t="n">
-        <v>452.5377573864724</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M24" t="n">
-        <v>772.8730769161742</v>
+        <v>417.5524109899876</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.284655180325</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O24" t="n">
-        <v>2246.748416482984</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
-        <v>2554.178946862809</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1029.666285013068</v>
+        <v>563.1598612984388</v>
       </c>
       <c r="C25" t="n">
-        <v>860.7301020851612</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D25" t="n">
-        <v>710.6134626728254</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E25" t="n">
-        <v>562.7003690904323</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F25" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
         <v>1209.787631771461</v>
       </c>
       <c r="V25" t="n">
-        <v>1209.787631771461</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W25" t="n">
-        <v>1209.787631771461</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X25" t="n">
-        <v>1209.787631771461</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y25" t="n">
-        <v>1209.787631771461</v>
+        <v>563.1598612984388</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805485</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3224.712326690735</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C27" t="n">
-        <v>3050.259297409608</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D27" t="n">
-        <v>2901.324887748357</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>2742.087432742901</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>2595.552874769786</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>2458.626196373971</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>2362.681322805659</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>2334.498159098443</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>2375.9892362638</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K27" t="n">
-        <v>2525.05892046586</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L27" t="n">
-        <v>2771.824048372324</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M27" t="n">
-        <v>3540.192194764786</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N27" t="n">
-        <v>4344.603773028937</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O27" t="n">
-        <v>4624.143838247634</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P27" t="n">
-        <v>4829.166319029844</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
-        <v>4860.854573014294</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
-        <v>4860.854573014294</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S27" t="n">
-        <v>4720.948468098069</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T27" t="n">
-        <v>4526.033852021847</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U27" t="n">
-        <v>4297.928927641234</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>4062.776819409491</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W27" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X27" t="n">
-        <v>3600.687962475757</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y27" t="n">
-        <v>3392.927663710803</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="28">
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>972.2646934632138</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>972.2646934632138</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>822.148054050878</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>674.2349604684849</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557903</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557903</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>1498.916270557903</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>1421.046823504761</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>1193.057272606744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>972.2646934632138</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6460,37 +6460,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
@@ -6539,28 +6539,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
-        <v>388.8958536704857</v>
+        <v>436.8967109626376</v>
       </c>
       <c r="L30" t="n">
-        <v>618.8589595388348</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M30" t="n">
-        <v>939.1942790685366</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N30" t="n">
-        <v>1743.605857332687</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O30" t="n">
-        <v>2413.069618635347</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P30" t="n">
-        <v>2413.069618635347</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>973.0255547109413</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>804.0893717830344</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>653.9727323706986</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>506.0596387883055</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.210845262961</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U31" t="n">
-        <v>1075.210845262961</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V31" t="n">
-        <v>1075.210845262961</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W31" t="n">
-        <v>1075.210845262961</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X31" t="n">
-        <v>1075.210845262961</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y31" t="n">
-        <v>1075.210845262961</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6721,31 +6721,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6776,28 +6776,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K33" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L33" t="n">
-        <v>343.9822193667499</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M33" t="n">
-        <v>1112.350365759211</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N33" t="n">
-        <v>1916.761944023362</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O33" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4549.85945949167</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T34" t="n">
-        <v>4326.074044281177</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>4036.945405494735</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V34" t="n">
-        <v>3782.260917288848</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W34" t="n">
-        <v>3492.843747251887</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6916,40 +6916,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G35" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>2500.819361250803</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>2911.709630095316</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L36" t="n">
-        <v>3488.582344802951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M36" t="n">
-        <v>4256.950491195412</v>
+        <v>417.5524109899876</v>
       </c>
       <c r="N36" t="n">
-        <v>4601.47114683303</v>
+        <v>1221.963989254138</v>
       </c>
       <c r="O36" t="n">
-        <v>4850.224560916992</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P36" t="n">
-        <v>4850.224560916992</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>4850.224560916992</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>1498.916270557902</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>1498.916270557902</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>1498.916270557902</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>1322.84934122136</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7168,37 +7168,37 @@
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7207,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7241,40 +7241,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126481</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571608</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L39" t="n">
-        <v>904.39166832551</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M39" t="n">
-        <v>1672.759814717971</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N39" t="n">
-        <v>2364.190079194876</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>879.2482765610114</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>1244.231782352015</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>1060.896741391251</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>1060.896741391251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>1060.896741391251</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7393,55 +7393,55 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7478,40 +7478,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126481</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571608</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636248</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="M42" t="n">
-        <v>1443.347833878256</v>
+        <v>629.3975440735811</v>
       </c>
       <c r="N42" t="n">
-        <v>1443.347833878256</v>
+        <v>1433.809122337732</v>
       </c>
       <c r="O42" t="n">
-        <v>2112.811595180915</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1096.475226584133</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V43" t="n">
-        <v>1498.916270557902</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W43" t="n">
-        <v>1498.916270557902</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>1498.916270557902</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y43" t="n">
-        <v>1278.123691414372</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="44">
@@ -7627,19 +7627,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822463</v>
@@ -7648,10 +7648,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7666,10 +7666,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7727,25 +7727,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>263.5382936126482</v>
+        <v>436.8967109626374</v>
       </c>
       <c r="L45" t="n">
-        <v>510.3034215191122</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M45" t="n">
-        <v>1278.671567911574</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N45" t="n">
-        <v>1453.977845975556</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O45" t="n">
-        <v>2123.441607278215</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>696.2811958984813</v>
+        <v>973.0255547109412</v>
       </c>
       <c r="C46" t="n">
-        <v>527.3450129705744</v>
+        <v>804.0893717830343</v>
       </c>
       <c r="D46" t="n">
-        <v>527.3450129705744</v>
+        <v>653.9727323706985</v>
       </c>
       <c r="E46" t="n">
-        <v>527.3450129705744</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F46" t="n">
-        <v>527.3450129705744</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G46" t="n">
         <v>359.1696912903951</v>
@@ -7836,22 +7836,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1388.139409909212</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>1388.139409909212</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V46" t="n">
-        <v>1388.139409909212</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W46" t="n">
-        <v>1098.722239872251</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X46" t="n">
-        <v>1098.722239872251</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="Y46" t="n">
-        <v>877.929660728721</v>
+        <v>1154.674019541181</v>
       </c>
     </row>
   </sheetData>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013777</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>6.233205181928668</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9008,13 +9008,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9257,10 +9257,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9497,10 +9497,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9968,16 +9968,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10205,13 +10205,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10442,16 +10442,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>133.49704931148</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10667,10 +10667,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10682,10 +10682,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10916,13 +10916,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11141,25 +11141,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>217.0040507420902</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,28 +11378,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23269,10 +23269,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>255.7670666459721</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>154.6528871281403</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23430,16 +23430,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.9207765545704</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>152.7120966692326</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>123.2665578794171</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
-        <v>17.69584188176917</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>129.1731816677914</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>263.7247482946444</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4960408938905</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23557,13 +23557,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>362.5617308895322</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23661,22 +23661,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>81.48541031801747</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.9207765545704</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>123.2665578794171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>17.69584188176917</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>129.1731816677914</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>263.7247482946444</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23892,25 +23892,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>95.28358845576476</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>6.267320147927677</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,22 +23943,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>10.65497486614629</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>33.38685156731854</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24180,22 +24180,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.511846891128272</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24372,16 +24372,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24423,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>117.0838022442222</v>
       </c>
     </row>
     <row r="26">
@@ -24606,22 +24606,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,25 +24651,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>209.4322457539809</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>78.66854253543787</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,25 +24888,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>79.43092547709136</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>192.3581855871777</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,25 +25362,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>44.278393308918</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25599,22 +25599,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>105.0213077854342</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>44.27839330891796</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,25 +25836,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26028,16 +26028,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>111.8784690161855</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -26091,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>164.3078231821314</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>793678.7908793102</v>
+        <v>918918.2903836161</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>793678.7908793102</v>
+        <v>918918.2903836161</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>918918.2903836162</v>
+        <v>918918.290383616</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>918918.2903836162</v>
+        <v>918918.2903836161</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>918918.2903836162</v>
+        <v>918918.2903836161</v>
       </c>
     </row>
     <row r="11">
@@ -26322,25 +26322,25 @@
         <v>472099.0176719629</v>
       </c>
       <c r="E2" t="n">
-        <v>388396.0040473218</v>
+        <v>449683.4186983651</v>
       </c>
       <c r="F2" t="n">
-        <v>388396.0040473216</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="G2" t="n">
         <v>449683.4186983651</v>
       </c>
       <c r="H2" t="n">
+        <v>449683.418698365</v>
+      </c>
+      <c r="I2" t="n">
         <v>449683.4186983652</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>449683.4186983649</v>
+      </c>
+      <c r="K2" t="n">
         <v>449683.4186983651</v>
-      </c>
-      <c r="J2" t="n">
-        <v>449683.4186983654</v>
-      </c>
-      <c r="K2" t="n">
-        <v>449683.4186983652</v>
       </c>
       <c r="L2" t="n">
         <v>449683.4186983651</v>
@@ -26349,13 +26349,13 @@
         <v>449683.4186983652</v>
       </c>
       <c r="N2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.418698365</v>
       </c>
       <c r="O2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.4186983651</v>
       </c>
       <c r="P2" t="n">
-        <v>449683.4186983653</v>
+        <v>449683.418698365</v>
       </c>
     </row>
     <row r="3">
@@ -26374,19 +26374,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>248146.7686188425</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>263762.8892659104</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>62453.05588965286</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>69864.88484991125</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26423,13 +26423,13 @@
         <v>139059.139180619</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>639.5264553066584</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="F4" t="n">
-        <v>639.5264553066584</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="G4" t="n">
         <v>787.7936905758695</v>
@@ -26438,25 +26438,25 @@
         <v>787.7936905758695</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758696</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="J4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="K4" t="n">
-        <v>787.7936905758696</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="L4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="M4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="N4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="O4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="P4" t="n">
         <v>787.7936905758695</v>
@@ -26475,13 +26475,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>69171.54328360136</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>69171.54328360136</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
@@ -26490,28 +26490,28 @@
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26530,40 +26530,40 @@
         <v>250180.8004279344</v>
       </c>
       <c r="E6" t="n">
-        <v>70438.16568957125</v>
+        <v>-169226.3286775452</v>
       </c>
       <c r="F6" t="n">
-        <v>318584.9343084136</v>
+        <v>355933.7077993511</v>
       </c>
       <c r="G6" t="n">
-        <v>93145.40979316217</v>
+        <v>355933.707799351</v>
       </c>
       <c r="H6" t="n">
-        <v>356908.2990590726</v>
+        <v>355933.7077993508</v>
       </c>
       <c r="I6" t="n">
-        <v>356908.2990590724</v>
+        <v>355933.7077993511</v>
       </c>
       <c r="J6" t="n">
-        <v>180485.0798664798</v>
+        <v>179510.4886067579</v>
       </c>
       <c r="K6" t="n">
-        <v>356908.2990590727</v>
+        <v>355933.707799351</v>
       </c>
       <c r="L6" t="n">
-        <v>356908.2990590729</v>
+        <v>355933.707799351</v>
       </c>
       <c r="M6" t="n">
-        <v>294455.2431694198</v>
+        <v>221132.6925655139</v>
       </c>
       <c r="N6" t="n">
-        <v>356908.2990590727</v>
+        <v>355933.7077993508</v>
       </c>
       <c r="O6" t="n">
-        <v>287043.4142091614</v>
+        <v>355933.707799351</v>
       </c>
       <c r="P6" t="n">
-        <v>356908.2990590729</v>
+        <v>355933.7077993508</v>
       </c>
     </row>
   </sheetData>
@@ -26743,13 +26743,13 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>593.4761003380636</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>593.4761003380636</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541003</v>
@@ -26758,28 +26758,28 @@
         <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26795,13 +26795,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>924.8974390827563</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>924.8974390827563</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26813,10 +26813,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
         <v>1215.213643253573</v>
@@ -26968,19 +26968,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>215.7324361209768</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>236.9063051160367</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>250.6101663282004</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>290.3162041708168</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>250.6101663282004</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>290.3162041708168</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>250.6101663282004</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>290.3162041708168</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>75.60477574309579</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>283.2991409305238</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>120.4387434050066</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27596,7 +27596,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>192.4108057479593</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>85.98948845797258</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>218.8910649275542</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27833,16 +27833,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>96.92615468724688</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>193.2687479352323</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>353.7959079654914</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>145.647637080857</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27912,13 +27912,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28067,19 +28067,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>11.79420836743338</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>63.3731647155137</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31144,13 +31144,13 @@
         <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>73.87984549392718</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>50.44659727034983</v>
@@ -31369,7 +31369,7 @@
         <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653236</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
@@ -31384,7 +31384,7 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>35.71704454957967</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
@@ -31521,7 +31521,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31530,34 +31530,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,40 +31594,40 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>56.98116194942315</v>
+        <v>56.98116194942338</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
@@ -31636,7 +31636,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.385833569198244</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>24.43391804055152</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>91.97984867651539</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>202.4946418937396</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>303.4869768779013</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>376.5024309712522</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>418.9314987074814</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>425.710248335966</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>401.9861157822509</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>343.0858495426692</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>257.643184845757</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411493</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>54.36718245810503</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
-        <v>10.44398644916532</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1908666855358595</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.276533498840363</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
-        <v>12.32862615985298</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>43.9508244118283</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>120.604421484738</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>206.1321659070423</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>277.1701353512815</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>323.4444746842446</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>91.68477333291145</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>339.3147979156452</v>
       </c>
       <c r="P12" t="n">
-        <v>243.7619099671568</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>79.25705355080784</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>23.71104985784621</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>5.145325813308304</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0839824670289713</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.070202803888311</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>9.515075838206993</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>32.18391704784123</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
-        <v>75.66333823490361</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>124.3381075790238</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>159.109969588995</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>167.7591540676923</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>163.7702163441087</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>151.2683017714134</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>129.4361645720917</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>89.6148911510476</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>48.12020970937806</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
-        <v>18.65071613685356</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>4.572684707522783</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05837469839390796</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.385833569198244</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>24.43391804055152</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>91.97984867651539</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>202.4946418937396</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>303.4869768779013</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>376.5024309712522</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>418.9314987074814</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>425.710248335966</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>401.9861157822509</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>343.0858495426692</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>257.643184845757</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411493</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>54.36718245810503</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
-        <v>10.44398644916532</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1908666855358595</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.276533498840363</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
-        <v>12.32862615985298</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>43.9508244118283</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>120.604421484738</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>206.1321659070423</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>149.6531597750757</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>323.4444746842446</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>332.0050874900645</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>243.7619099671568</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>162.9483813607453</v>
+        <v>32.39888063626303</v>
       </c>
       <c r="R15" t="n">
-        <v>79.25705355080784</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>23.71104985784621</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>5.145325813308304</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0839824670289713</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.070202803888311</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>9.515075838206993</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>32.18391704784123</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
-        <v>75.66333823490361</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>124.3381075790238</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>159.109969588995</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>167.7591540676923</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>163.7702163441087</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>151.2683017714134</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
-        <v>129.4361645720917</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>89.6148911510476</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>48.12020970937806</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
-        <v>18.65071613685356</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>4.572684707522783</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05837469839390796</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32314,16 +32314,16 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>59.26687365990642</v>
       </c>
       <c r="N18" t="n">
         <v>464.5362854813462</v>
@@ -32332,10 +32332,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>135.2711142846615</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>100.1578341526431</v>
@@ -32551,28 +32551,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>278.4799167015756</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>129.3623873097339</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>100.1578341526431</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -32800,25 +32800,25 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>380.4309478731437</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>126.0475280469432</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724848</v>
+        <v>380.6284621420188</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>171.9901114440519</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>216.4869287318327</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>142.5346749772342</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,37 +33499,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>380.6284621420188</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,16 +33675,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,37 +33736,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>350.4137463023087</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>330.1172231204812</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,16 +33912,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,37 +33973,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>315.8821359054327</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>350.4137463023096</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,16 +34149,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,19 +34210,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>213.9849829127208</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34231,16 +34231,16 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,37 +34447,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>216.4869287318324</v>
       </c>
       <c r="L45" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>308.4187606328102</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34792,13 +34792,13 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>325.1459203262123</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35032,7 +35032,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35178,22 +35178,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730081</v>
+        <v>289.2671274730084</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338903</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.5453525391271</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>407.5425384040855</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>558.3972305517154</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>638.0987989730412</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>633.6441091513592</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>552.6880856233096</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>433.6515619588823</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>247.6524856312122</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>332.755963945262</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>509.4561008748665</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>647.0155045122262</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
-        <v>439.6854355931317</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>251.2660748322851</v>
+        <v>590.5808727479302</v>
       </c>
       <c r="P12" t="n">
-        <v>428.2502711927636</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>102.0686157531409</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>186.6999948493111</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>207.3430310295329</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>207.9023887233373</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>175.8534296854531</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>126.7147238369852</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.452847899353216</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.5453525391271</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>407.5425384040855</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>558.3972305517154</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>638.0987989730412</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>633.6441091513592</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>552.6880856233096</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>433.6515619588823</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>247.6524856312122</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>119.8578301584802</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>332.755963945262</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>381.9391252986607</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>181.3104407622263</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>680.0057497502846</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
-        <v>428.2502711927636</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>233.0438950105729</v>
+        <v>102.4943942860906</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>102.0686157531409</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>186.6999948493111</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>207.3430310295329</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>207.9023887233373</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>175.8534296854531</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>126.7147238369852</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.452847899353216</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>382.837903487888</v>
       </c>
       <c r="N18" t="n">
         <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>205.366627934489</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>405.1037147397952</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>323.5710298279816</v>
+        <v>452.9334171377155</v>
       </c>
       <c r="N21" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415666</v>
+        <v>728.431610133364</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
-        <v>310.5358892725502</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490674</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004663</v>
+        <v>704.1994919700004</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411083</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315248</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>32.00833735803036</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953156</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>343.1107267700523</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178378</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>212.6301886270618</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>704.1994919700004</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
-        <v>415.8607515525881</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>582.6997118258937</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N36" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O36" t="n">
-        <v>251.2660748322851</v>
+        <v>581.3832979527663</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,22 +37621,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>548.1681014290177</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>698.4144085625298</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O39" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37645,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>527.4284277925564</v>
+        <v>537.5560127407024</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>343.1107267700521</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>177.0770485494768</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1654739.525348074</v>
+        <v>1660797.023521537</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>478192.6657187986</v>
+        <v>551697.2576229135</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1702443.552109825</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10757764.99812417</v>
+        <v>10539372.29004432</v>
       </c>
     </row>
     <row r="11">
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>44.64130008435401</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>40.62363183383332</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,10 +712,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -724,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -797,7 +797,7 @@
         <v>225.8879277888686</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494254</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -828,7 +828,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>25.31590541686196</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>59.72683757586869</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>13.15972490571613</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>150.8400357509149</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1065,7 +1065,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>8.389005322401673</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>25.31590541686252</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>284.5615160058696</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>6.28367916400425</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1293,16 +1293,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="W10" t="n">
-        <v>223.1498336210773</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>118.4960408938905</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051993</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>146.3874833072544</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>135.5574116118565</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H12" t="n">
-        <v>94.98542483262921</v>
+        <v>99.90681807664348</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>45.44580843958678</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>20.90078060183529</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670632</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T12" t="n">
-        <v>192.9654699154601</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8238751368068</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>58.3182164966651</v>
       </c>
     </row>
     <row r="14">
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>118.4960408938904</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338503</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>220.0108883234605</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1672,10 +1672,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>135.5574116118565</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H15" t="n">
-        <v>94.98542483262921</v>
+        <v>99.90681807664346</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>45.44580843958671</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>20.90078060183517</v>
       </c>
       <c r="S15" t="n">
-        <v>138.5070438670632</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T15" t="n">
-        <v>192.9654699154601</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8238751368068</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>64.9485523285517</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1782,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>117.4952274512724</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1830,10 +1830,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -2013,10 +2013,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>139.1537278750036</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2256,40 +2256,40 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
         <v>115.5269768002176</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>20.91388839244296</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>101.5008511078726</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2569,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002178</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>118.4898845065119</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274137</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,19 +3189,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>144.1504526722474</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>134.7426179953489</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>88.86494278824905</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>57.64843562452406</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>57.64843562452406</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4194,16 +4194,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>54.27683016996335</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1309.714918859356</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="C2" t="n">
-        <v>1309.714918859356</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="D2" t="n">
-        <v>1309.714918859356</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="E2" t="n">
-        <v>923.9266662611117</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>512.9407614715042</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>94.97695336969105</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834949</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.546461473041</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X2" t="n">
-        <v>1309.714918859356</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="Y2" t="n">
-        <v>1309.714918859356</v>
+        <v>1408.645612988121</v>
       </c>
     </row>
     <row r="3">
@@ -4406,7 +4406,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4418,19 +4418,19 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
         <v>2646.935720430048</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.7988452409105</v>
+        <v>2489.929004554789</v>
       </c>
       <c r="C4" t="n">
-        <v>498.8626623130036</v>
+        <v>2320.992821626882</v>
       </c>
       <c r="D4" t="n">
-        <v>348.7460229006679</v>
+        <v>2170.876182214546</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>2671.577469385029</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>2671.577469385029</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>2671.577469385029</v>
       </c>
       <c r="V4" t="n">
-        <v>667.7988452409105</v>
+        <v>2671.577469385029</v>
       </c>
       <c r="W4" t="n">
-        <v>667.7988452409105</v>
+        <v>2671.577469385029</v>
       </c>
       <c r="X4" t="n">
-        <v>667.7988452409105</v>
+        <v>2671.577469385029</v>
       </c>
       <c r="Y4" t="n">
-        <v>667.7988452409105</v>
+        <v>2671.577469385029</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1591.868758816787</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>825.2129885066836</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>466.9472898999331</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>81.15903730168884</v>
       </c>
       <c r="F5" t="n">
         <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4585,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W5" t="n">
-        <v>2520.971603332393</v>
+        <v>2344.380435748109</v>
       </c>
       <c r="X5" t="n">
-        <v>2368.607930856721</v>
+        <v>1970.914677487029</v>
       </c>
       <c r="Y5" t="n">
-        <v>1978.468598880909</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4643,46 +4643,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>520.9088977430002</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="C7" t="n">
-        <v>351.9727148150933</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4764,13 +4764,13 @@
         <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>719.6552414565338</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>719.6552414565338</v>
       </c>
       <c r="Y7" t="n">
-        <v>702.55736257324</v>
+        <v>498.8626623130036</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1194.175505447095</v>
+        <v>1865.381229508782</v>
       </c>
       <c r="C8" t="n">
-        <v>825.2129885066831</v>
+        <v>1496.41871256837</v>
       </c>
       <c r="D8" t="n">
-        <v>466.9472898999326</v>
+        <v>1138.15301396162</v>
       </c>
       <c r="E8" t="n">
-        <v>81.15903730168839</v>
+        <v>752.3647613633757</v>
       </c>
       <c r="F8" t="n">
-        <v>74.21353655248491</v>
+        <v>341.3788565737681</v>
       </c>
       <c r="G8" t="n">
-        <v>60.29013249107582</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>60.29013249107582</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4810,7 +4810,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>2344.380435748108</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>1970.914677487028</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y8" t="n">
-        <v>1580.775345511217</v>
+        <v>2251.981069572904</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4889,10 +4889,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4904,22 +4904,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4998,16 +4998,16 @@
         <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="W10" t="n">
-        <v>502.7251118619119</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="X10" t="n">
-        <v>274.7355609638946</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>667.7988452409105</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>1717.687138661524</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>1348.724621721112</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>990.4589231143618</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>604.6706705161175</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>193.6847657265099</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>193.6847657265099</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>193.6847657265099</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>262.6316941403561</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514086</v>
+        <v>666.098807160401</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1218.912065406599</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>1850.62987638991</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>2477.937544449755</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3025.098749216832</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>3454.413795556125</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>3551.723611576223</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3220.660724232652</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>2867.892068962537</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>2494.426310701458</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2104.286978725646</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C12" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D12" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E12" t="n">
-        <v>504.8063651047445</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2540276322776</v>
       </c>
       <c r="G12" t="n">
-        <v>221.3451287358148</v>
+        <v>220.8126299914995</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>119.8966521363041</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028587</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="K12" t="n">
-        <v>508.1073603047985</v>
+        <v>403.4201994324299</v>
       </c>
       <c r="L12" t="n">
-        <v>1122.004430061687</v>
+        <v>907.7817392985478</v>
       </c>
       <c r="M12" t="n">
-        <v>1442.339749591389</v>
+        <v>1548.327088765652</v>
       </c>
       <c r="N12" t="n">
-        <v>1786.860405229007</v>
+        <v>1892.84774440327</v>
       </c>
       <c r="O12" t="n">
-        <v>2371.535469249458</v>
+        <v>2242.979918893832</v>
       </c>
       <c r="P12" t="n">
-        <v>2554.178946862809</v>
+        <v>2425.623396507183</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2656.336852567651</v>
       </c>
       <c r="R12" t="n">
-        <v>2623.573505376138</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S12" t="n">
-        <v>2483.667400459913</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T12" t="n">
-        <v>2288.75278438369</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U12" t="n">
-        <v>2060.647860003077</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V12" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W12" t="n">
-        <v>1571.258395043133</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X12" t="n">
-        <v>1363.4068948376</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y12" t="n">
-        <v>1155.646596072646</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028587</v>
+        <v>242.9279780545274</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028587</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028587</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>175.03972472223</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>359.872719623048</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>565.1423203422855</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974667</v>
+        <v>770.9656851783894</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>945.0605805669879</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1070.508157165603</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="S13" t="n">
-        <v>1382.222354598087</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="T13" t="n">
-        <v>1158.436939387592</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011507</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952638</v>
+        <v>819.2419883800761</v>
       </c>
       <c r="W13" t="n">
-        <v>325.2066423583032</v>
+        <v>529.8248183431156</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028587</v>
+        <v>301.8352674450982</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028587</v>
+        <v>242.9279780545274</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2035.910253889014</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>1666.947736948603</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1308.682038341852</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>922.8937857436081</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>511.9078809540005</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>511.9078809540005</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>193.6847657265099</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>262.6316941403568</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514093</v>
+        <v>666.098807160402</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795208</v>
+        <v>1218.912065406601</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>1850.629876389912</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>2477.937544449758</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643325</v>
+        <v>3025.098749216836</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>3454.41379555613</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>3699.58975633103</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>3699.58975633103</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>3543.374718827858</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>3328.574857095569</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>3106.341636566821</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>2775.278749223251</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>2422.510093953136</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>2422.510093953136</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2422.510093953136</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C15" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D15" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E15" t="n">
-        <v>504.8063651047445</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2540276322776</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358148</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>119.8966521363041</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028587</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="K15" t="n">
-        <v>97.21709146028587</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="L15" t="n">
-        <v>97.21709146028587</v>
+        <v>578.3533349927388</v>
       </c>
       <c r="M15" t="n">
-        <v>865.5852378527475</v>
+        <v>940.3328245679794</v>
       </c>
       <c r="N15" t="n">
-        <v>1669.996816116898</v>
+        <v>1613.538516820762</v>
       </c>
       <c r="O15" t="n">
-        <v>2339.460577419557</v>
+        <v>2162.974525573484</v>
       </c>
       <c r="P15" t="n">
-        <v>2522.104055032908</v>
+        <v>2586.942294054321</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2656.33685256765</v>
       </c>
       <c r="R15" t="n">
-        <v>2623.573505376138</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S15" t="n">
-        <v>2483.667400459913</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T15" t="n">
-        <v>2288.75278438369</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U15" t="n">
-        <v>2060.647860003077</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V15" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W15" t="n">
-        <v>1571.258395043133</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X15" t="n">
-        <v>1363.4068948376</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y15" t="n">
-        <v>1155.646596072646</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6642370999739</v>
+        <v>637.593523549838</v>
       </c>
       <c r="C16" t="n">
-        <v>571.6642370999739</v>
+        <v>637.593523549838</v>
       </c>
       <c r="D16" t="n">
-        <v>571.6642370999739</v>
+        <v>487.4768841375022</v>
       </c>
       <c r="E16" t="n">
-        <v>506.0596387883055</v>
+        <v>339.5637905551091</v>
       </c>
       <c r="F16" t="n">
-        <v>359.1696912903951</v>
+        <v>192.6738430571988</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>192.6738430571988</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>73.9917951266206</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>175.0397247222303</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>359.8727196230485</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>565.1423203422863</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974667</v>
+        <v>770.9656851783905</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>945.0605805669892</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1070.508157165605</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="U16" t="n">
-        <v>1275.130855347408</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="V16" t="n">
-        <v>1020.446367141521</v>
+        <v>819.2419883800777</v>
       </c>
       <c r="W16" t="n">
-        <v>1020.446367141521</v>
+        <v>819.2419883800777</v>
       </c>
       <c r="X16" t="n">
-        <v>792.456816243504</v>
+        <v>819.2419883800777</v>
       </c>
       <c r="Y16" t="n">
-        <v>571.6642370999739</v>
+        <v>819.2419883800777</v>
       </c>
     </row>
     <row r="17">
@@ -5494,67 +5494,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5591,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>508.1073603047985</v>
+        <v>601.6782162734562</v>
       </c>
       <c r="L18" t="n">
-        <v>1122.004430061687</v>
+        <v>1215.575286030345</v>
       </c>
       <c r="M18" t="n">
-        <v>1501.013954514696</v>
+        <v>1983.943432422806</v>
       </c>
       <c r="N18" t="n">
-        <v>2305.425532778847</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="O18" t="n">
-        <v>2554.178946862809</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="P18" t="n">
-        <v>2554.178946862809</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>237.776412546148</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="C19" t="n">
-        <v>237.776412546148</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="D19" t="n">
-        <v>237.776412546148</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="E19" t="n">
-        <v>237.776412546148</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5703,22 +5703,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1009.867621687013</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>755.183133481126</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>465.7659634441654</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>237.776412546148</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="Y19" t="n">
-        <v>237.776412546148</v>
+        <v>241.9805482336712</v>
       </c>
     </row>
     <row r="20">
@@ -5731,46 +5731,46 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.627437207831</v>
@@ -5779,19 +5779,19 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5834,16 +5834,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="K21" t="n">
-        <v>508.1073603047985</v>
+        <v>436.8967109626374</v>
       </c>
       <c r="L21" t="n">
-        <v>1122.004430061687</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M21" t="n">
-        <v>1570.408513028025</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N21" t="n">
-        <v>2374.820091292176</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O21" t="n">
         <v>2623.573505376138</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028587</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V22" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W22" t="n">
-        <v>441.900558318119</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y22" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6025,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6071,25 +6071,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L24" t="n">
-        <v>97.21709146028584</v>
+        <v>1029.165307834915</v>
       </c>
       <c r="M24" t="n">
-        <v>417.5524109899876</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="N24" t="n">
-        <v>1138.699705022018</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>563.1598612984388</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="C25" t="n">
-        <v>394.223678370532</v>
+        <v>268.760239702689</v>
       </c>
       <c r="D25" t="n">
-        <v>244.1070389581962</v>
+        <v>268.760239702689</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581962</v>
+        <v>268.760239702689</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6189,10 +6189,10 @@
         <v>665.6859735286132</v>
       </c>
       <c r="X25" t="n">
-        <v>665.6859735286132</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y25" t="n">
-        <v>563.1598612984388</v>
+        <v>437.6964226305959</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
@@ -6223,10 +6223,10 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514083</v>
@@ -6244,13 +6244,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6302,16 +6302,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K27" t="n">
-        <v>508.1073603047985</v>
+        <v>436.8967109626374</v>
       </c>
       <c r="L27" t="n">
-        <v>1122.004430061687</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M27" t="n">
         <v>1819.161927111988</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598086</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T28" t="n">
         <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W28" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
@@ -6466,13 +6466,13 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
         <v>3183.709822619127</v>
@@ -6481,7 +6481,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6499,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6545,13 +6545,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
-        <v>436.8967109626376</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L30" t="n">
-        <v>1050.793780719526</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M30" t="n">
-        <v>1819.161927111988</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N30" t="n">
         <v>2623.573505376138</v>
@@ -6648,22 +6648,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1379.229518531123</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
-        <v>1379.229518531123</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>1090.100879744681</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
         <v>97.21709146028584</v>
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822469</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6718,34 +6718,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6767,28 +6767,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K33" t="n">
-        <v>508.1073603047985</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L33" t="n">
-        <v>1122.004430061687</v>
+        <v>1288.325632214049</v>
       </c>
       <c r="M33" t="n">
-        <v>1819.161927111988</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028587</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028587</v>
+        <v>557.8888784891305</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028587</v>
+        <v>557.8888784891305</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028587</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011507</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952638</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028587</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028587</v>
+        <v>726.8250614170374</v>
       </c>
     </row>
     <row r="35">
@@ -6916,40 +6916,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6958,7 +6958,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7025,19 +7025,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="M36" t="n">
-        <v>417.5524109899876</v>
+        <v>334.2881267578673</v>
       </c>
       <c r="N36" t="n">
-        <v>1221.963989254138</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O36" t="n">
-        <v>1797.533454227377</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,10 +7071,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D37" t="n">
         <v>97.21709146028584</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011506</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952637</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="38">
@@ -7162,40 +7162,40 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7256,25 +7256,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>508.1073603047985</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L39" t="n">
-        <v>1050.793780719526</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M39" t="n">
-        <v>1819.161927111988</v>
+        <v>323.6581146605672</v>
       </c>
       <c r="N39" t="n">
-        <v>2623.573505376138</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O39" t="n">
-        <v>2623.573505376138</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P39" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D40" t="n">
         <v>97.21709146028584</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="41">
@@ -7390,52 +7390,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7487,31 +7487,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M42" t="n">
-        <v>629.3975440735811</v>
+        <v>323.6581146605672</v>
       </c>
       <c r="N42" t="n">
-        <v>1433.809122337732</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O42" t="n">
-        <v>2103.272883640391</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P42" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028587</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028587</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011507</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952638</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028587</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028587</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="44">
@@ -7639,34 +7639,34 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7730,13 +7730,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>436.8967109626374</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L45" t="n">
-        <v>1050.793780719526</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M45" t="n">
-        <v>1819.161927111988</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N45" t="n">
         <v>2623.573505376138</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>973.0255547109412</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C46" t="n">
-        <v>804.0893717830343</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="D46" t="n">
-        <v>653.9727323706985</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7842,16 +7842,16 @@
         <v>1498.916270557902</v>
       </c>
       <c r="V46" t="n">
-        <v>1498.916270557902</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W46" t="n">
-        <v>1209.499100520942</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X46" t="n">
-        <v>1209.499100520942</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y46" t="n">
-        <v>1154.674019541181</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
   </sheetData>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>194.3570488013777</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928668</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -9011,7 +9011,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9257,7 +9257,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -9494,7 +9494,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -9719,19 +9719,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9977,7 +9977,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10673,7 +10673,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>381.5997261417975</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -10904,25 +10904,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>370.8623401849288</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11147,7 +11147,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>370.8623401849288</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -23272,10 +23272,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>154.6528871281403</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>104.7673029150462</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23430,16 +23430,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>123.2665578794171</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>17.69584188176917</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>129.1731816677914</v>
       </c>
       <c r="S13" t="n">
-        <v>82.39383318338567</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>160.2664368554297</v>
       </c>
     </row>
     <row r="14">
@@ -23509,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23551,7 +23551,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>31.14389789884012</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23560,10 +23560,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23652,31 +23652,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>81.48541031801747</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>35.21686921796022</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>17.69584188176906</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>129.1731816677914</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23901,10 +23901,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>6.267320147927677</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>23.17774625772614</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24144,7 +24144,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>33.38685156731854</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24177,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>124.5071596304883</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>117.0838022442222</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24651,7 +24651,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338545</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>79.43092547709136</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -25077,19 +25077,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>2.283509974321817</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25125,13 +25125,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>82.39383318338567</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25362,13 +25362,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>90.96703739368829</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>90.96703739368824</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25599,13 +25599,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>90.96703739368829</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25836,13 +25836,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>82.39383318338567</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>90.96703739368829</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26082,16 +26082,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>164.3078231821314</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>918918.2903836161</v>
+        <v>793678.7908793102</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>918918.2903836161</v>
+        <v>793678.7908793108</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>918918.290383616</v>
+        <v>918918.2903836161</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>918918.2903836161</v>
+        <v>918918.290383616</v>
       </c>
     </row>
     <row r="10">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.017671963</v>
       </c>
       <c r="C2" t="n">
         <v>472099.0176719629</v>
@@ -26322,40 +26322,40 @@
         <v>472099.0176719629</v>
       </c>
       <c r="E2" t="n">
+        <v>388396.0040473217</v>
+      </c>
+      <c r="F2" t="n">
+        <v>388396.004047322</v>
+      </c>
+      <c r="G2" t="n">
+        <v>449683.4186983652</v>
+      </c>
+      <c r="H2" t="n">
         <v>449683.4186983651</v>
-      </c>
-      <c r="F2" t="n">
-        <v>449683.4186983652</v>
-      </c>
-      <c r="G2" t="n">
-        <v>449683.4186983651</v>
-      </c>
-      <c r="H2" t="n">
-        <v>449683.418698365</v>
       </c>
       <c r="I2" t="n">
         <v>449683.4186983652</v>
       </c>
       <c r="J2" t="n">
-        <v>449683.4186983649</v>
+        <v>449683.4186983651</v>
       </c>
       <c r="K2" t="n">
-        <v>449683.4186983651</v>
+        <v>449683.418698365</v>
       </c>
       <c r="L2" t="n">
-        <v>449683.4186983651</v>
+        <v>449683.418698365</v>
       </c>
       <c r="M2" t="n">
         <v>449683.4186983652</v>
       </c>
       <c r="N2" t="n">
-        <v>449683.418698365</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="O2" t="n">
+        <v>449683.4186983652</v>
+      </c>
+      <c r="P2" t="n">
         <v>449683.4186983651</v>
-      </c>
-      <c r="P2" t="n">
-        <v>449683.418698365</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>248146.7686188427</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.077222123058164e-09</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>263762.8892659094</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>62453.05588965298</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>3.062947371290648e-10</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>69864.884849911</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
         <v>139059.139180619</v>
@@ -26426,10 +26426,10 @@
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758694</v>
+        <v>639.5264553066584</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758695</v>
+        <v>639.5264553066588</v>
       </c>
       <c r="G4" t="n">
         <v>787.7936905758695</v>
@@ -26444,10 +26444,10 @@
         <v>787.7936905758695</v>
       </c>
       <c r="K4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="L4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="M4" t="n">
         <v>787.7936905758695</v>
@@ -26459,7 +26459,7 @@
         <v>787.7936905758695</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
     </row>
     <row r="5">
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>82859.07806340946</v>
+      </c>
+      <c r="C5" t="n">
         <v>82859.07806340947</v>
-      </c>
-      <c r="C5" t="n">
-        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>69171.54328360136</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>69171.54328360147</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
@@ -26490,28 +26490,28 @@
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-339787.0787866102</v>
+        <v>-339787.07878661</v>
       </c>
       <c r="C6" t="n">
         <v>250180.8004279344</v>
@@ -26530,40 +26530,40 @@
         <v>250180.8004279344</v>
       </c>
       <c r="E6" t="n">
-        <v>-169226.3286775452</v>
+        <v>70074.23954337687</v>
       </c>
       <c r="F6" t="n">
-        <v>355933.7077993511</v>
+        <v>318221.0081622186</v>
       </c>
       <c r="G6" t="n">
-        <v>355933.707799351</v>
+        <v>93047.95066719111</v>
       </c>
       <c r="H6" t="n">
-        <v>355933.7077993508</v>
+        <v>356810.8399331004</v>
       </c>
       <c r="I6" t="n">
-        <v>355933.7077993511</v>
+        <v>356810.8399331004</v>
       </c>
       <c r="J6" t="n">
-        <v>179510.4886067579</v>
+        <v>180387.6207405074</v>
       </c>
       <c r="K6" t="n">
-        <v>355933.707799351</v>
+        <v>356810.8399331004</v>
       </c>
       <c r="L6" t="n">
-        <v>355933.707799351</v>
+        <v>356810.8399331003</v>
       </c>
       <c r="M6" t="n">
-        <v>221132.6925655139</v>
+        <v>294357.7840434475</v>
       </c>
       <c r="N6" t="n">
-        <v>355933.7077993508</v>
+        <v>356810.8399331003</v>
       </c>
       <c r="O6" t="n">
-        <v>355933.707799351</v>
+        <v>286945.9550831896</v>
       </c>
       <c r="P6" t="n">
-        <v>355933.7077993508</v>
+        <v>356810.8399331004</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>593.4761003380636</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>593.4761003380645</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541003</v>
@@ -26758,28 +26758,28 @@
         <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="C4" t="n">
         <v>674.2872727545557</v>
-      </c>
-      <c r="C4" t="n">
-        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>924.8974390827563</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>924.8974390827575</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>215.7324361209769</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>236.9063051160358</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>250.6101663282006</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1.250555214937776e-12</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>290.3162041708158</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>250.6101663282009</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1.250555214937776e-12</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>290.3162041708158</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>250.6101663282006</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1.250555214937776e-12</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>290.3162041708158</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>337.2890699879077</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>283.2991409305238</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,10 +27432,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27548,7 +27548,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27587,7 +27587,7 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>186.8296335331569</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27596,7 +27596,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>192.4108057479593</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27627,7 +27627,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>393.7163208359953</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27666,7 +27666,7 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27678,10 +27678,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>218.8910649275542</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27785,7 +27785,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>278.1339930141893</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>193.2687479352323</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>129.2226540149254</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>145.647637080857</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27915,10 +27915,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,16 +28013,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28070,16 +28070,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>192.4108057479593</v>
       </c>
       <c r="W10" t="n">
-        <v>63.3731647155137</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31138,7 +31138,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983122</v>
+        <v>86.4344768999344</v>
       </c>
       <c r="N3" t="n">
         <v>211.31907117367</v>
@@ -31150,7 +31150,7 @@
         <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
         <v>50.44659727034983</v>
@@ -31366,10 +31366,10 @@
         <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
-        <v>11.76595806653236</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
@@ -31609,7 +31609,7 @@
         <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>56.98116194942338</v>
+        <v>56.98116194942293</v>
       </c>
       <c r="M9" t="n">
         <v>205.8702969983122</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>2.385833569198244</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>24.43391804055152</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>91.97984867651539</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>202.4946418937396</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>303.4869768779013</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>376.5024309712522</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>418.9314987074814</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>425.710248335966</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>401.9861157822509</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>343.0858495426692</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>257.643184845757</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>149.8691179411493</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>54.36718245810503</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>10.44398644916532</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.1908666855358595</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.276533498840363</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>12.32862615985298</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>43.9508244118283</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>120.604421484738</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>206.1321659070423</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>277.1701353512815</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>323.4444746842446</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>339.3147979156452</v>
+        <v>102.4027882894954</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>162.9483813607453</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>79.25705355080784</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>23.71104985784621</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>5.145325813308304</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.0839824670289713</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.070202803888311</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>9.515075838206993</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>32.18391704784123</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822383</v>
+        <v>75.66333823490361</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>124.3381075790238</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>159.109969588995</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>167.7591540676923</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>163.7702163441087</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>151.2683017714134</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>129.4361645720917</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>89.6148911510476</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>48.12020970937806</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>18.65071613685356</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>4.572684707522783</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.05837469839390796</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>2.385833569198248</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>24.43391804055156</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>91.97984867651553</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>202.4946418937399</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>303.4869768779018</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>376.5024309712527</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>418.9314987074821</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>425.7102483359666</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>401.9861157822515</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>343.0858495426697</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>257.6431848457574</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>149.8691179411495</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>54.36718245810512</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562944</v>
+        <v>10.44398644916533</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.1908666855358598</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,13 +32068,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.276533498840365</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>12.328626159853</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>43.95082441182837</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -32083,34 +32083,34 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>277.1701353512819</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>42.06481822781694</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>332.005087490065</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>303.7197925947074</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>243.7619099671571</v>
       </c>
       <c r="Q15" t="n">
-        <v>32.39888063626303</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>79.25705355080797</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>23.71104985784624</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>5.145325813308312</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.08398246702897143</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.070202803888313</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>9.515075838207007</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>32.18391704784128</v>
       </c>
       <c r="J16" t="n">
-        <v>105.8669502822383</v>
+        <v>75.66333823490372</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>124.338107579024</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>159.1099695889952</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>167.7591540676925</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>163.7702163441089</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>151.2683017714136</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469073</v>
+        <v>129.4361645720919</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>89.61489115104774</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>48.12020970937813</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>18.65071613685359</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>4.57268470752279</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.05837469839390805</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32314,19 +32314,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>214.93167939694</v>
       </c>
       <c r="L18" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>59.26687365990642</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -32335,7 +32335,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>100.1578341526431</v>
@@ -32554,13 +32554,13 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>216.4869287318324</v>
       </c>
       <c r="L21" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>129.3623873097339</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
         <v>464.5362854813462</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32791,19 +32791,19 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>294.0351935977453</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>380.4309478731437</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>341.0678223458549</v>
@@ -32812,13 +32812,13 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33028,16 +33028,16 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>216.4869287318324</v>
       </c>
       <c r="L27" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>380.6284621420188</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -33049,13 +33049,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33265,7 +33265,7 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
-        <v>216.4869287318327</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
         <v>387.8120847358985</v>
@@ -33274,7 +33274,7 @@
         <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>380.6284621420188</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -33523,13 +33523,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,16 +33675,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33748,10 +33748,10 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>330.1172231204812</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
         <v>341.0678223458549</v>
@@ -33760,13 +33760,13 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,16 +33912,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33976,34 +33976,34 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>315.8821359054327</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,16 +34149,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446483</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34219,10 +34219,10 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>213.9849829127208</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34231,16 +34231,16 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34450,16 +34450,16 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>216.4869287318324</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -34474,10 +34474,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34786,7 +34786,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338903</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35257,7 +35257,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730084</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>190.5453525391271</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>407.5425384040855</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>558.3972305517154</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>638.0987989730412</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>633.6441091513592</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>552.6880856233096</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>433.6515619588823</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>247.6524856312122</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>332.755963945262</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>509.4561008748665</v>
       </c>
       <c r="M12" t="n">
-        <v>323.5710298279816</v>
+        <v>647.0155045122262</v>
       </c>
       <c r="N12" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>590.5808727479302</v>
+        <v>353.6688631217805</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>233.0438950105729</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>102.0686157531409</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>186.6999948493111</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>207.3430310295329</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>207.9023887233373</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>175.8534296854531</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>126.7147238369852</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>3.452847899353216</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>190.5453525391274</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>407.542538404086</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>558.3972305517159</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>638.0987989730419</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>633.6441091513599</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>552.6880856233101</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>433.6515619588828</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>247.6524856312126</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,22 +35731,22 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>509.4561008748669</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>365.6358480557985</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>680.0057497502852</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178377</v>
+        <v>554.9858674269925</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>428.250271192764</v>
       </c>
       <c r="Q15" t="n">
-        <v>102.4943942860906</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>102.0686157531411</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>186.6999948493113</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>207.3430310295331</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>207.9023887233375</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>175.8534296854533</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>126.7147238369854</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>3.452847899353358</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>341.5554774351596</v>
       </c>
       <c r="L18" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>382.837903487888</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O18" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36202,19 +36202,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>343.110726770052</v>
       </c>
       <c r="L21" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>452.9334171377155</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
         <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,19 +36439,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>526.3211591213303</v>
       </c>
       <c r="M24" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>728.431610133364</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>525.5561835714618</v>
@@ -36460,7 +36460,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,16 +36676,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>343.110726770052</v>
       </c>
       <c r="L27" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>704.1994919700004</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>343.1107267700523</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>620.0980502594834</v>
@@ -36922,7 +36922,7 @@
         <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
@@ -37156,10 +37156,10 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>704.1994919700004</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,13 +37393,13 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>323.5710298279816</v>
+        <v>239.4656922197792</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
-        <v>581.3832979527663</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
         <v>525.5561835714618</v>
@@ -37408,7 +37408,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,28 +37624,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>548.1681014290177</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>228.7283062629105</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,22 +37867,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>537.5560127407024</v>
+        <v>228.7283062629105</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,16 +38098,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>343.1107267700521</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
